--- a/docs/packet format.xlsx
+++ b/docs/packet format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Nº of TLV</t>
   </si>
@@ -105,19 +105,22 @@
     <t>Latest SyncCFT PACKET</t>
   </si>
   <si>
-    <t>N.Header Type</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>5 bits</t>
-  </si>
-  <si>
-    <t>3-4 bits?</t>
-  </si>
-  <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>1 Byte</t>
+  </si>
+  <si>
+    <t>3 Bytes</t>
+  </si>
+  <si>
+    <t>xx Bytes</t>
+  </si>
+  <si>
+    <t>Next TLV Type</t>
   </si>
 </sst>
 </file>
@@ -639,138 +642,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AG53"/>
+  <dimension ref="B1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:Q43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AM48" sqref="AM48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -1078,40 +1081,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1">
       <c r="B3" s="1">
@@ -1212,264 +1215,264 @@
       </c>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="20"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
     </row>
     <row r="6" spans="2:33">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="37"/>
     </row>
     <row r="7" spans="2:33">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="20"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="37"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="20"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="37"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="31"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="3"/>
@@ -1540,40 +1543,40 @@
       <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="2:33">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="15" spans="2:33" ht="15.75" thickBot="1">
       <c r="B15" s="1">
@@ -1674,256 +1677,256 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="12" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="15" t="s">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="17"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="51"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="20"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="20"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="37"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="6"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="43"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="6"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="43"/>
     </row>
     <row r="21" spans="2:33">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="6"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="43"/>
     </row>
     <row r="22" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="9" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="11"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="48"/>
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="3"/>
@@ -1994,40 +1997,40 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
     </row>
     <row r="27" spans="2:33" ht="15.75" thickBot="1">
       <c r="B27" s="1">
@@ -2128,86 +2131,86 @@
       </c>
     </row>
     <row r="28" spans="2:33">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="12" t="s">
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="45"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="26"/>
     </row>
     <row r="29" spans="2:33">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="40" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="39"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="18"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="21" t="s">
@@ -2286,220 +2289,220 @@
       <c r="AG31" s="23"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="39"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="40" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="39"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="18"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="39"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="18"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="39"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="18"/>
     </row>
     <row r="36" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="36"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="12"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
     </row>
     <row r="41" spans="2:33" ht="15.75" thickBot="1">
       <c r="B41" s="1">
@@ -2600,86 +2603,84 @@
       </c>
     </row>
     <row r="42" spans="2:33">
-      <c r="B42" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12" t="s">
+      <c r="B42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="14"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="12" t="s">
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="45"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="26"/>
     </row>
     <row r="43" spans="2:33">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="40" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="39"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="18"/>
     </row>
     <row r="44" spans="2:33">
       <c r="B44" s="21" t="s">
@@ -2718,221 +2719,262 @@
       <c r="AG44" s="23"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="18"/>
+    </row>
+    <row r="46" spans="2:33">
+      <c r="B46" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22" t="s">
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="23"/>
-    </row>
-    <row r="46" spans="2:33">
-      <c r="B46" s="24" t="s">
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="23"/>
+    </row>
+    <row r="47" spans="2:33">
+      <c r="B47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="39"/>
-    </row>
-    <row r="47" spans="2:33">
-      <c r="B47" s="24" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="18"/>
+    </row>
+    <row r="48" spans="2:33">
+      <c r="B48" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="39"/>
-    </row>
-    <row r="48" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B48" s="34" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="18"/>
+    </row>
+    <row r="49" spans="2:33" ht="15.75" thickBot="1">
+      <c r="B49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="36"/>
-    </row>
-    <row r="50" spans="2:22" ht="15.75" thickBot="1"/>
-    <row r="51" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B51" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="12"/>
+    </row>
+    <row r="51" spans="2:33" ht="15.75" thickBot="1"/>
+    <row r="52" spans="2:33" ht="15.75" thickBot="1">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-    </row>
-    <row r="52" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B52" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:33" ht="15.75" thickBot="1">
+      <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B53" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="2:33" ht="15.75" thickBot="1">
+      <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="48"/>
+      <c r="E54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B48:AG48"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B46:AG46"/>
-    <mergeCell ref="B47:AG47"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="B44:AG44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="B39:AG39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="R42:AG42"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:AG17"/>
+    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:AG16"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="R5:AG5"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="B13:AG13"/>
     <mergeCell ref="B25:AG25"/>
@@ -2949,27 +2991,24 @@
     <mergeCell ref="R29:AG29"/>
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="R5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="B10:AB10"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:AG17"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:AG16"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="B19:AG19"/>
-    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B39:AG39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="R42:AG42"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="B49:AG49"/>
+    <mergeCell ref="B47:AG47"/>
+    <mergeCell ref="B48:AG48"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B44:AG44"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="B45:AG45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/packet format.xlsx
+++ b/docs/packet format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Nº of TLV</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Next TLV Type</t>
+  </si>
+  <si>
+    <t>Source Session ID</t>
+  </si>
+  <si>
+    <t>Destination Session ID</t>
+  </si>
+  <si>
+    <t>Source Sender ID</t>
   </si>
 </sst>
 </file>
@@ -648,6 +657,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,30 +738,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,90 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AM48" sqref="AM48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AK52" sqref="AK52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -1081,40 +1090,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1">
       <c r="B3" s="1">
@@ -1215,264 +1224,264 @@
       </c>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
     </row>
     <row r="6" spans="2:33">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="37"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="14"/>
     </row>
     <row r="7" spans="2:33">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="37"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="14"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="37"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="37"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="14"/>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="39"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="30"/>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="3"/>
@@ -1543,40 +1552,40 @@
       <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="2:33">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="15" spans="2:33" ht="15.75" thickBot="1">
       <c r="B15" s="1">
@@ -1677,256 +1686,256 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="13" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="49" t="s">
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="51"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="28"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="37"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="37"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="43"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="43"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="2:33">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="43"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="46" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="48"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="3"/>
@@ -1997,40 +2006,40 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
     </row>
     <row r="27" spans="2:33" ht="15.75" thickBot="1">
       <c r="B27" s="1">
@@ -2131,378 +2140,378 @@
       </c>
     </row>
     <row r="28" spans="2:33">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="13" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="13" t="s">
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="26"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="47"/>
     </row>
     <row r="29" spans="2:33">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="18"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="40"/>
     </row>
     <row r="30" spans="2:33">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="23"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="51"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22" t="s">
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="23"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="51"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="18"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="40"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="20" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="18"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="40"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="18"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="40"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="18"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="40"/>
     </row>
     <row r="36" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="12"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="36"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
     </row>
     <row r="41" spans="2:33" ht="15.75" thickBot="1">
       <c r="B41" s="1">
@@ -2603,304 +2612,304 @@
       </c>
     </row>
     <row r="42" spans="2:33">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="13" t="s">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="26"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="47"/>
     </row>
     <row r="43" spans="2:33">
-      <c r="B43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="18"/>
+      <c r="B43" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="40"/>
     </row>
     <row r="44" spans="2:33">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="23"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="51"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="18"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="40"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22" t="s">
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="23"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="51"/>
     </row>
     <row r="47" spans="2:33">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="18"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="40"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="18"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="40"/>
     </row>
     <row r="49" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="12"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="36"/>
     </row>
     <row r="51" spans="2:33" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:33" ht="15.75" thickBot="1">
@@ -2954,27 +2963,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:AG17"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:AG16"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="B19:AG19"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="B10:AB10"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="R5:AG5"/>
+    <mergeCell ref="B49:AG49"/>
+    <mergeCell ref="B47:AG47"/>
+    <mergeCell ref="B48:AG48"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B44:AG44"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="B45:AG45"/>
+    <mergeCell ref="B39:AG39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="R42:AG42"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J42:Q42"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="B13:AG13"/>
     <mergeCell ref="B25:AG25"/>
@@ -2991,24 +2997,27 @@
     <mergeCell ref="R29:AG29"/>
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="B39:AG39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="R42:AG42"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="B49:AG49"/>
-    <mergeCell ref="B47:AG47"/>
-    <mergeCell ref="B48:AG48"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="B44:AG44"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="B45:AG45"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="R5:AG5"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:AG17"/>
+    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:AG16"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/packet format.xlsx
+++ b/docs/packet format.xlsx
@@ -114,9 +114,6 @@
     <t>1 Byte</t>
   </si>
   <si>
-    <t>3 Bytes</t>
-  </si>
-  <si>
     <t>xx Bytes</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Source Sender ID</t>
+  </si>
+  <si>
+    <t>4 Bytes</t>
   </si>
 </sst>
 </file>
@@ -657,12 +657,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,6 +741,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,15 +775,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,75 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AK52" sqref="AK52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -1090,40 +1090,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1">
       <c r="B3" s="1">
@@ -1224,264 +1224,264 @@
       </c>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="32"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="14"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
     </row>
     <row r="6" spans="2:33">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="14"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="37"/>
     </row>
     <row r="7" spans="2:33">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="14"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="37"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="14"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="37"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="14"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="30"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="3"/>
@@ -1552,40 +1552,40 @@
       <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="2:33">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="15" spans="2:33" ht="15.75" thickBot="1">
       <c r="B15" s="1">
@@ -1686,256 +1686,256 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="23" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="26" t="s">
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="28"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="51"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="14"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="37"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="37"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="17"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="43"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="17"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="43"/>
     </row>
     <row r="21" spans="2:33">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="17"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="43"/>
     </row>
     <row r="22" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="20" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="22"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="48"/>
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="3"/>
@@ -2006,40 +2006,40 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
     </row>
     <row r="27" spans="2:33" ht="15.75" thickBot="1">
       <c r="B27" s="1">
@@ -2140,378 +2140,378 @@
       </c>
     </row>
     <row r="28" spans="2:33">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="23" t="s">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="47"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="26"/>
     </row>
     <row r="29" spans="2:33">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="41" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="40"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="15"/>
     </row>
     <row r="30" spans="2:33">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="20"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="51"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="20"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="40"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="15"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="41" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="40"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="15"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="40"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="15"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="40"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="15"/>
     </row>
     <row r="36" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="36"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="12"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
     </row>
     <row r="41" spans="2:33" ht="15.75" thickBot="1">
       <c r="B41" s="1">
@@ -2612,304 +2612,304 @@
       </c>
     </row>
     <row r="42" spans="2:33">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="23" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="23" t="s">
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="26"/>
+    </row>
+    <row r="43" spans="2:33">
+      <c r="B43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="47"/>
-    </row>
-    <row r="43" spans="2:33">
-      <c r="B43" s="45" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="40"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="15"/>
     </row>
     <row r="44" spans="2:33">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="51"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="20"/>
     </row>
     <row r="45" spans="2:33">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="40"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="15"/>
     </row>
     <row r="46" spans="2:33">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50" t="s">
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="51"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="20"/>
     </row>
     <row r="47" spans="2:33">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="40"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="15"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="40"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="15"/>
     </row>
     <row r="49" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="36"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="12"/>
     </row>
     <row r="51" spans="2:33" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:33" ht="15.75" thickBot="1">
@@ -2929,7 +2929,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2941,7 +2941,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2963,24 +2963,27 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B49:AG49"/>
-    <mergeCell ref="B47:AG47"/>
-    <mergeCell ref="B48:AG48"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="B44:AG44"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:AG46"/>
-    <mergeCell ref="B45:AG45"/>
-    <mergeCell ref="B39:AG39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="R42:AG42"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:AG17"/>
+    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:AG16"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="R5:AG5"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="B13:AG13"/>
     <mergeCell ref="B25:AG25"/>
@@ -2997,27 +3000,24 @@
     <mergeCell ref="R29:AG29"/>
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="R5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="B10:AB10"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:AG17"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:AG16"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="B19:AG19"/>
-    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B39:AG39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="R42:AG42"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="B49:AG49"/>
+    <mergeCell ref="B47:AG47"/>
+    <mergeCell ref="B48:AG48"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B44:AG44"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:AG46"/>
+    <mergeCell ref="B45:AG45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
